--- a/documents/Published/HistogramXY/HistogramXYByMAQSoftwareChecklist.xlsx
+++ b/documents/Published/HistogramXY/HistogramXYByMAQSoftwareChecklist.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VisualWork\documents\Published\HistogramXY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MAQCustomVisual\documents\Published\HistogramXY\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02423EF0-F590-49D1-85E6-61290A53B1C8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13290" xr2:uid="{460CE8C8-20E9-4BFC-A027-E9F688B2787C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{460CE8C8-20E9-4BFC-A027-E9F688B2787C}"/>
   </bookViews>
   <sheets>
     <sheet name="BVT" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="65">
   <si>
     <t>S no</t>
   </si>
@@ -301,6 +302,18 @@
   </si>
   <si>
     <t>Histogram Chart will be displayed with specified start and end values.</t>
+  </si>
+  <si>
+    <t>Power BI Desktop</t>
+  </si>
+  <si>
+    <t>Internet Explorer</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>Chrome</t>
   </si>
 </sst>
 </file>
@@ -417,9 +430,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -468,6 +480,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,6 +504,1243 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4692169</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2962276</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0B05C24-EB93-493C-BE09-18DC99626AEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11658600" y="257176"/>
+          <a:ext cx="4615969" cy="2895600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>295275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4686300</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2920054</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A352C32-1107-46D1-A151-87A88283C1BA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16544925" y="485775"/>
+          <a:ext cx="4438650" cy="2624779"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4410076</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2837825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AEE2E45-2D91-4B75-AC7F-B43DFC29BC15}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21507451" y="295275"/>
+          <a:ext cx="4038600" cy="2733050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>333376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5295901</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2708616</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A06B53F1-6076-4A7B-AB10-445EEC8DEC61}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26269951" y="523876"/>
+          <a:ext cx="4857750" cy="2375240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>110097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4476750</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2838995</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F933F0A-70D8-4955-A1B1-08D91546342E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11706225" y="3386697"/>
+          <a:ext cx="4352925" cy="2728898"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4562475</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2766463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB579ACB-24A3-47C9-AC9D-5538525DF4E8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16506825" y="3448050"/>
+          <a:ext cx="4352925" cy="2595013"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4114800</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2680818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="Picture 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23938516-792A-43F0-BD02-7E7FEB6EF044}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21431250" y="3429000"/>
+          <a:ext cx="3819525" cy="2528418"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5238751</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>2642878</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E413BDD-3888-46C7-99E8-586F8C938ADA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26117551" y="3467100"/>
+          <a:ext cx="4953000" cy="2452378"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>152401</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4486275</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2686657</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Picture 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B02CF8E-5967-47F1-9444-1A5C5213341F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11734801" y="6324600"/>
+          <a:ext cx="4333874" cy="2581882"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504826</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4524375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2549185</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D02DDC8E-B43F-45CE-9F16-D3769F1040D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16802101" y="6324601"/>
+          <a:ext cx="4019549" cy="2444409"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>564867</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4363197</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2667507</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6EADC22-A9AE-43A9-A461-8034CF8000CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21700842" y="6305549"/>
+          <a:ext cx="3798330" cy="2581783"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>209551</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5276851</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>2597410</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E6C200C-FAFB-4A5C-A0F0-A72F32A09C83}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26041351" y="6296025"/>
+          <a:ext cx="5067300" cy="2521210"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4863470</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2371725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F1EEB64-DF8F-4D82-B295-77B928987743}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11677650" y="9124950"/>
+          <a:ext cx="4768220" cy="2209800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>147355</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4848225</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2381748</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A1DBC9E-BC42-4AB6-9326-B6E9F0501F36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16725900" y="9110380"/>
+          <a:ext cx="4676775" cy="2234393"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4667250</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2345269</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62DFEFB0-5365-46F1-BCB3-C50929CDA763}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21650325" y="9058275"/>
+          <a:ext cx="4543425" cy="2250019"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85726</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5448208</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>2276475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DFDA3BE-A03E-4ACA-81C2-E2B4DBCA5B32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26308051" y="9163050"/>
+          <a:ext cx="5362482" cy="2076450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4923566</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2448450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F6BD0EF-EC85-467C-90A2-CA82049B01D3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11706225" y="11668125"/>
+          <a:ext cx="4799741" cy="2315100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>276226</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4814233</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2486524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2490B06-1E09-4C26-B668-1CFD5E08DBEB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16630650" y="11811001"/>
+          <a:ext cx="4738033" cy="2210298"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4600575</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2344816</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C55FD38-DA9B-49BF-A651-C3D59D1B0CB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21602700" y="11639550"/>
+          <a:ext cx="4524375" cy="2240041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95251</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5466607</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>2390775</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCBDC403-D9FE-47B6-A90B-B317030BAC60}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26317576" y="11744325"/>
+          <a:ext cx="5371356" cy="2181225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5372100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2185513</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5300A8F9-800A-4F6E-8423-FFB6F3568FD8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26346150" y="14497050"/>
+          <a:ext cx="5248275" cy="2023588"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4552950</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2297299</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Picture 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4617E96-A8FB-46A5-A389-0D0E4DDFCFC2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21736050" y="14392275"/>
+          <a:ext cx="4343400" cy="2240149"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4810125</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2328820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Picture 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A0344A-9AB7-49C1-9960-549B72B373DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId23"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16744950" y="14439900"/>
+          <a:ext cx="4619625" cy="2224045"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4864869</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>2257425</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Picture 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{414584A0-0079-43B6-AFE8-92A29234E213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11687175" y="14430375"/>
+          <a:ext cx="4760094" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>4910478</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2371725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Picture 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64505D85-026A-4B11-9008-99889C420E6B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId25"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11782426" y="17078325"/>
+          <a:ext cx="4710452" cy="2162175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>4776463</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2353181</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Picture 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29488F71-906D-4085-A18D-793510AD4E20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16821151" y="17068799"/>
+          <a:ext cx="4509762" cy="2153157"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4667250</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2434058</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Picture 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D01A97E0-C0E8-42DA-9049-2C6A44F7B2B7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId27"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21555075" y="17030700"/>
+          <a:ext cx="4638675" cy="2272133"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>5378504</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>2381251</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Picture 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7C4C05-D11D-4D5C-9D18-A8D271CE2AC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26393775" y="17021176"/>
+          <a:ext cx="5207054" cy="2228850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -782,10 +2040,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6912D463-5787-4386-AC5E-483DCEEE662E}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,146 +2052,190 @@
     <col min="3" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="40" customWidth="1"/>
     <col min="5" max="5" width="51" customWidth="1"/>
+    <col min="6" max="7" width="74.5703125" customWidth="1"/>
+    <col min="8" max="8" width="70.42578125" customWidth="1"/>
+    <col min="9" max="9" width="82.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="17" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="F1" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="243" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+    </row>
+    <row r="3" spans="1:9" ht="231.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="19" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" ht="216" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="19" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" ht="202.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="18">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="19" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="18">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="19" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" ht="199.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="18">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="19" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+    </row>
+    <row r="8" spans="1:9" ht="215.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="18">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="19" t="s">
         <v>60</v>
       </c>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -947,277 +2249,277 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="73.28515625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="73.28515625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="4">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="4">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <v>16</v>
       </c>
-      <c r="B17" s="6" t="s">
+      <c r="B17" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="13"/>
-      <c r="B18" s="7" t="s">
+      <c r="A18" s="12"/>
+      <c r="B18" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="16"/>
+      <c r="C18" s="15"/>
     </row>
     <row r="19" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="14"/>
-      <c r="B19" s="8" t="s">
+      <c r="A19" s="13"/>
+      <c r="B19" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="17"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="3">
         <v>17</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="12">
+      <c r="A21" s="11">
         <v>18</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="13"/>
-      <c r="B22" s="10" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="16"/>
+      <c r="C22" s="15"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="13"/>
-      <c r="B23" s="10" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="16"/>
+      <c r="C23" s="15"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="13"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="16"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="15"/>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="13"/>
+      <c r="B25" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="17"/>
+      <c r="C25" s="16"/>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="4">
+      <c r="A26" s="3">
         <v>19</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="3">
         <v>20</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>32</v>
       </c>
     </row>
